--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f501_bao_cao_nhan_su_du_an_tu_ngay_den_ngay.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f501_bao_cao_nhan_su_du_an_tu_ngay_den_ngay.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,63 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Mã nhân sự</t>
+  </si>
+  <si>
+    <t>Họ đệm</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Thời điểm tham gia</t>
+  </si>
+  <si>
+    <t>Thời điểm kết thúc</t>
+  </si>
+  <si>
+    <t>Thời gian tham gia(%)</t>
+  </si>
+  <si>
+    <t>Danh hiệu</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>BÁO CÁO NHÂN SỰ DỰ ÁN</t>
+  </si>
+  <si>
+    <t>Từ ngày</t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>&lt;tu_ngay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;den_ngay&gt;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +75,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +420,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="21">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
